--- a/bom/sz-cgb-l_bom.xlsx
+++ b/bom/sz-cgb-l_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Game Boys\PCBs KiCad 6\Replacement PCBs\Game Boy Color Lite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD007970-C4D6-47B3-85D7-02B191BAB671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDD241-7FDC-4365-A737-E74663C76472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{1B8DE006-A192-4FB4-B7C4-147D91A60D2F}"/>
+    <workbookView xWindow="5070" yWindow="600" windowWidth="19200" windowHeight="21000" xr2:uid="{1B8DE006-A192-4FB4-B7C4-147D91A60D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="SZ-POCO BOM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="224">
   <si>
     <t>Value</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>https://retrogamerepairshop.com/collections/gbc-power/products/game-boy-color-high-quality-replacement-battery-contact-terminals?variant=37508302799020</t>
+  </si>
+  <si>
+    <t>C43</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825AD815-C825-4F79-A2B3-B49C2DA37A18}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E64" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>163</v>
@@ -1625,13 +1628,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>108</v>
@@ -1640,13 +1643,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>108</v>
@@ -1655,92 +1658,90 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>217</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>193</v>
+        <v>126</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>220</v>
+      <c r="E40" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>108</v>
+        <v>36</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>167</v>
@@ -1757,7 +1758,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>167</v>
@@ -1774,7 +1775,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>167</v>
@@ -1791,7 +1792,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>167</v>
@@ -1808,24 +1809,24 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>167</v>
@@ -1842,7 +1843,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>167</v>
@@ -1859,58 +1860,58 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>129</v>
+        <v>216</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>127</v>
+        <v>210</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>168</v>
@@ -1927,126 +1928,126 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>130</v>
+        <v>51</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>193</v>
+        <v>130</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>204</v>
+      <c r="E56" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>193</v>
+      <c r="E58" s="5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>207</v>
+      <c r="E59" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>171</v>
@@ -2063,7 +2064,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>171</v>
@@ -2080,45 +2081,47 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>193</v>
+        <v>136</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>108</v>
@@ -2127,13 +2130,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>108</v>
@@ -2142,13 +2145,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>108</v>
@@ -2157,13 +2160,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>108</v>
@@ -2172,13 +2175,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>108</v>
@@ -2187,13 +2190,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>108</v>
@@ -2202,13 +2205,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>108</v>
@@ -2217,13 +2220,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>108</v>
@@ -2232,13 +2235,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>108</v>
@@ -2247,13 +2250,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>108</v>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>172</v>
@@ -2277,13 +2280,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>108</v>
@@ -2292,13 +2295,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>108</v>
@@ -2307,13 +2310,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>108</v>
@@ -2322,251 +2325,249 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>201</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>193</v>
+      <c r="E83" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>198</v>
+        <v>129</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>193</v>
+        <v>159</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>196</v>
+        <v>160</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>193</v>
+        <v>129</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>195</v>
+      <c r="E88" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>193</v>
+      <c r="E90" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>192</v>
+      <c r="E91" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>129</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>129</v>
@@ -2577,24 +2578,24 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>187</v>
@@ -2611,7 +2612,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>187</v>
@@ -2628,7 +2629,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>187</v>
@@ -2645,7 +2646,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>187</v>
@@ -2662,7 +2663,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>187</v>
@@ -2679,7 +2680,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>187</v>
@@ -2696,7 +2697,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>187</v>
@@ -2708,44 +2709,61 @@
         <v>188</v>
       </c>
       <c r="E101" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E94" r:id="rId1" xr:uid="{D8CC1BD5-7801-420B-8501-837F40DF6997}"/>
-    <hyperlink ref="E95:E101" r:id="rId2" display="https://www.mouser.com/ProductDetail/688-SKRRAA" xr:uid="{0579B61F-D3C5-428F-8923-214F07EA3849}"/>
-    <hyperlink ref="E89" r:id="rId3" xr:uid="{4B4EEC5E-B28E-4EDD-B6CD-364F9F1B8FCF}"/>
-    <hyperlink ref="E91" r:id="rId4" xr:uid="{3AA61E64-D24D-467D-B3ED-77DA6C2ACC66}"/>
-    <hyperlink ref="E88" r:id="rId5" xr:uid="{BB6D5539-1652-4DB6-A996-17F8F731A811}"/>
-    <hyperlink ref="E86" r:id="rId6" location="dc-power-board" xr:uid="{A4E0F283-1ACB-4CF7-9558-9E691653676F}"/>
-    <hyperlink ref="E84" r:id="rId7" xr:uid="{6689AAC9-7113-4F9A-9187-2CB93F030FC8}"/>
-    <hyperlink ref="E82" r:id="rId8" xr:uid="{85114B67-CA5B-4D6C-8A74-EF3FBB4DA033}"/>
-    <hyperlink ref="E80" r:id="rId9" xr:uid="{4EB05712-0DDA-43E5-9171-DBDBC6E596E1}"/>
-    <hyperlink ref="E79" r:id="rId10" xr:uid="{3020303C-A644-44AD-9C3B-4D77EAC344B9}"/>
-    <hyperlink ref="E81" r:id="rId11" xr:uid="{8B52BACC-A2C1-41F2-98E9-1137B275894C}"/>
-    <hyperlink ref="E60" r:id="rId12" xr:uid="{AE323BDF-0C65-4BB8-9459-1CE15AA23D23}"/>
-    <hyperlink ref="E61" r:id="rId13" xr:uid="{E20E7313-D5AF-47AA-9A82-DF0532EC7C47}"/>
-    <hyperlink ref="E62" r:id="rId14" xr:uid="{D1B1DEE5-756E-4F09-95CA-E052998ED125}"/>
-    <hyperlink ref="E56" r:id="rId15" xr:uid="{15604C41-0CA8-42D5-AC8A-B3299A210D71}"/>
-    <hyperlink ref="E57" r:id="rId16" xr:uid="{E2BE73E4-F909-4440-9222-69EB622E07F4}"/>
-    <hyperlink ref="E59" r:id="rId17" xr:uid="{A1EE273E-5F9B-4EA1-889D-3CCC252BB34A}"/>
-    <hyperlink ref="E54" r:id="rId18" xr:uid="{3CB30CE0-7029-4F9E-B80A-3C07DDFBE1A9}"/>
-    <hyperlink ref="E53" r:id="rId19" xr:uid="{FBCF9D49-EF2B-4286-A880-0B053E59ED51}"/>
-    <hyperlink ref="E52" r:id="rId20" xr:uid="{EDC97751-80C4-4224-B1A9-3895A1B8782D}"/>
-    <hyperlink ref="E51" r:id="rId21" xr:uid="{53F7A225-EF3C-4646-8882-99105E3C7905}"/>
-    <hyperlink ref="E47" r:id="rId22" xr:uid="{BC4165D2-3AD8-4580-AFB0-CEAAFAA80A42}"/>
-    <hyperlink ref="E48" r:id="rId23" xr:uid="{9D53F175-F1CA-4BED-BBD5-F69B259FC33B}"/>
-    <hyperlink ref="E49" r:id="rId24" xr:uid="{91EA1A9D-BAC5-4D27-869F-15767A6EC278}"/>
-    <hyperlink ref="E42" r:id="rId25" xr:uid="{360A1259-462E-49F0-BAB9-184EE90BC6AC}"/>
-    <hyperlink ref="E43:E46" r:id="rId26" display="https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18TG102TN1D?qs=9XMWi9Gg%2FIF7CHjk9LuqnA%3D%3D" xr:uid="{85695F69-48D9-48E5-A0B8-A7D84D8C6637}"/>
-    <hyperlink ref="E50" r:id="rId27" xr:uid="{EF3C7CC3-678E-40AB-A0AF-B7ABB167FFA2}"/>
-    <hyperlink ref="E41" r:id="rId28" xr:uid="{4B9B8B6B-B466-4743-A75B-ACF285BCB0EF}"/>
-    <hyperlink ref="E38" r:id="rId29" xr:uid="{F5B862AF-70DD-41F0-BB72-F0327DF71692}"/>
-    <hyperlink ref="E40" r:id="rId30" xr:uid="{9E3CAF63-9CCD-4C79-A6E5-BC5EAE953F15}"/>
-    <hyperlink ref="E92" r:id="rId31" xr:uid="{D423444B-A102-40D2-ACF0-F1159F79387D}"/>
-    <hyperlink ref="E93" r:id="rId32" xr:uid="{5E643DDD-EA2B-49AD-BCFF-BD8E416E72E0}"/>
+    <hyperlink ref="E95" r:id="rId1" xr:uid="{D8CC1BD5-7801-420B-8501-837F40DF6997}"/>
+    <hyperlink ref="E96:E102" r:id="rId2" display="https://www.mouser.com/ProductDetail/688-SKRRAA" xr:uid="{0579B61F-D3C5-428F-8923-214F07EA3849}"/>
+    <hyperlink ref="E90" r:id="rId3" xr:uid="{4B4EEC5E-B28E-4EDD-B6CD-364F9F1B8FCF}"/>
+    <hyperlink ref="E92" r:id="rId4" xr:uid="{3AA61E64-D24D-467D-B3ED-77DA6C2ACC66}"/>
+    <hyperlink ref="E89" r:id="rId5" xr:uid="{BB6D5539-1652-4DB6-A996-17F8F731A811}"/>
+    <hyperlink ref="E87" r:id="rId6" location="dc-power-board" xr:uid="{A4E0F283-1ACB-4CF7-9558-9E691653676F}"/>
+    <hyperlink ref="E85" r:id="rId7" xr:uid="{6689AAC9-7113-4F9A-9187-2CB93F030FC8}"/>
+    <hyperlink ref="E83" r:id="rId8" xr:uid="{85114B67-CA5B-4D6C-8A74-EF3FBB4DA033}"/>
+    <hyperlink ref="E81" r:id="rId9" xr:uid="{4EB05712-0DDA-43E5-9171-DBDBC6E596E1}"/>
+    <hyperlink ref="E80" r:id="rId10" xr:uid="{3020303C-A644-44AD-9C3B-4D77EAC344B9}"/>
+    <hyperlink ref="E82" r:id="rId11" xr:uid="{8B52BACC-A2C1-41F2-98E9-1137B275894C}"/>
+    <hyperlink ref="E61" r:id="rId12" xr:uid="{AE323BDF-0C65-4BB8-9459-1CE15AA23D23}"/>
+    <hyperlink ref="E62" r:id="rId13" xr:uid="{E20E7313-D5AF-47AA-9A82-DF0532EC7C47}"/>
+    <hyperlink ref="E63" r:id="rId14" xr:uid="{D1B1DEE5-756E-4F09-95CA-E052998ED125}"/>
+    <hyperlink ref="E57" r:id="rId15" xr:uid="{15604C41-0CA8-42D5-AC8A-B3299A210D71}"/>
+    <hyperlink ref="E58" r:id="rId16" xr:uid="{E2BE73E4-F909-4440-9222-69EB622E07F4}"/>
+    <hyperlink ref="E60" r:id="rId17" xr:uid="{A1EE273E-5F9B-4EA1-889D-3CCC252BB34A}"/>
+    <hyperlink ref="E55" r:id="rId18" xr:uid="{3CB30CE0-7029-4F9E-B80A-3C07DDFBE1A9}"/>
+    <hyperlink ref="E54" r:id="rId19" xr:uid="{FBCF9D49-EF2B-4286-A880-0B053E59ED51}"/>
+    <hyperlink ref="E53" r:id="rId20" xr:uid="{EDC97751-80C4-4224-B1A9-3895A1B8782D}"/>
+    <hyperlink ref="E52" r:id="rId21" xr:uid="{53F7A225-EF3C-4646-8882-99105E3C7905}"/>
+    <hyperlink ref="E48" r:id="rId22" xr:uid="{BC4165D2-3AD8-4580-AFB0-CEAAFAA80A42}"/>
+    <hyperlink ref="E49" r:id="rId23" xr:uid="{9D53F175-F1CA-4BED-BBD5-F69B259FC33B}"/>
+    <hyperlink ref="E50" r:id="rId24" xr:uid="{91EA1A9D-BAC5-4D27-869F-15767A6EC278}"/>
+    <hyperlink ref="E43" r:id="rId25" xr:uid="{360A1259-462E-49F0-BAB9-184EE90BC6AC}"/>
+    <hyperlink ref="E44:E47" r:id="rId26" display="https://www.mouser.com/ProductDetail/Murata-Electronics/BLM18TG102TN1D?qs=9XMWi9Gg%2FIF7CHjk9LuqnA%3D%3D" xr:uid="{85695F69-48D9-48E5-A0B8-A7D84D8C6637}"/>
+    <hyperlink ref="E51" r:id="rId27" xr:uid="{EF3C7CC3-678E-40AB-A0AF-B7ABB167FFA2}"/>
+    <hyperlink ref="E42" r:id="rId28" xr:uid="{4B9B8B6B-B466-4743-A75B-ACF285BCB0EF}"/>
+    <hyperlink ref="E39" r:id="rId29" xr:uid="{F5B862AF-70DD-41F0-BB72-F0327DF71692}"/>
+    <hyperlink ref="E41" r:id="rId30" xr:uid="{9E3CAF63-9CCD-4C79-A6E5-BC5EAE953F15}"/>
+    <hyperlink ref="E93" r:id="rId31" xr:uid="{D423444B-A102-40D2-ACF0-F1159F79387D}"/>
+    <hyperlink ref="E94" r:id="rId32" xr:uid="{5E643DDD-EA2B-49AD-BCFF-BD8E416E72E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId33"/>
